--- a/tspi/ciclo-1/forma-logt-20105627.xlsx
+++ b/tspi/ciclo-1/forma-logt-20105627.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +68,18 @@
   </si>
   <si>
     <t>14/9/2014</t>
+  </si>
+  <si>
+    <t>13/9/2014</t>
+  </si>
+  <si>
+    <t>Tutorial de usar github</t>
+  </si>
+  <si>
+    <t>Instalación de Ruby, Ruby on Rails</t>
+  </si>
+  <si>
+    <t>Tutorial Basico de Ruby</t>
   </si>
 </sst>
 </file>
@@ -162,18 +174,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -197,6 +197,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,143 +511,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK12"/>
+  <dimension ref="A1:AMK10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="5"/>
-    <col min="2" max="3" width="11.6640625" style="6"/>
-    <col min="4" max="4" width="16.33203125" style="7"/>
-    <col min="5" max="5" width="10.6640625" style="7"/>
-    <col min="6" max="6" width="11.77734375" style="8"/>
-    <col min="7" max="7" width="11.6640625" style="8"/>
-    <col min="8" max="8" width="46" style="9"/>
-    <col min="9" max="1025" width="11.6640625" style="8"/>
+    <col min="1" max="1" width="11.6640625" style="1"/>
+    <col min="2" max="3" width="11.6640625" style="2"/>
+    <col min="4" max="4" width="16.33203125" style="3"/>
+    <col min="5" max="5" width="10.6640625" style="3"/>
+    <col min="6" max="6" width="11.77734375" style="4"/>
+    <col min="7" max="7" width="11.6640625" style="4"/>
+    <col min="8" max="8" width="46" style="5"/>
+    <col min="9" max="1025" width="11.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="13"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="14">
         <v>41905</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="15"/>
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="11" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="16">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="G3" s="16"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>50</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B7" s="2">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="2">
         <v>0.19791666666666666</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="3">
         <v>40</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="8" spans="1:8" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>41910</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B8" s="2">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="2">
         <v>0.75</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="3">
         <v>30</v>
       </c>
-      <c r="E7" s="7">
-        <f t="shared" ref="E7" si="0">((HOUR(C7)-HOUR(B7))*60)+(MINUTE(C7)-MINUTE(B7))-D7</f>
+      <c r="E8" s="3">
+        <f t="shared" ref="E8" si="0">((HOUR(C8)-HOUR(B8))*60)+(MINUTE(C8)-MINUTE(B8))-D8</f>
         <v>90</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F8" s="4">
         <v>6</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>41903</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>60</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>41903</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>80</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:C1"/>

--- a/tspi/ciclo-1/forma-logt-20105627.xlsx
+++ b/tspi/ciclo-1/forma-logt-20105627.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Tutorial Basico de Ruby</t>
+  </si>
+  <si>
+    <t>Reunión de Equipo</t>
+  </si>
+  <si>
+    <t>Tuvimos una reunión de equipo para la asignación de las tareas del ciclo #1.</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK10"/>
+  <dimension ref="A1:AMK11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -702,6 +708,29 @@
         <v>21</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.96875</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B1:C1"/>

--- a/tspi/ciclo-1/forma-logt-20105627.xlsx
+++ b/tspi/ciclo-1/forma-logt-20105627.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="48" windowWidth="16380" windowHeight="8148" tabRatio="400"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="16380" windowHeight="8100" tabRatio="400"/>
   </bookViews>
   <sheets>
     <sheet name="LOGT" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -67,12 +67,6 @@
     <t>Creación del grupo de github y agregar a los integrantes</t>
   </si>
   <si>
-    <t>14/9/2014</t>
-  </si>
-  <si>
-    <t>13/9/2014</t>
-  </si>
-  <si>
     <t>Tutorial de usar github</t>
   </si>
   <si>
@@ -86,6 +80,9 @@
   </si>
   <si>
     <t>Tuvimos una reunión de equipo para la asignación de las tareas del ciclo #1.</t>
+  </si>
+  <si>
+    <t>Participe en el diagrama de use case y escenario de atributo de calidad</t>
   </si>
 </sst>
 </file>
@@ -517,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK11"/>
+  <dimension ref="A1:AMK12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,8 +605,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
+      <c r="A6" s="1">
+        <v>41895</v>
       </c>
       <c r="B6" s="2">
         <v>0.91666666666666663</v>
@@ -624,12 +621,12 @@
         <v>50</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
+      <c r="A7" s="1">
+        <v>41896</v>
       </c>
       <c r="B7" s="2">
         <v>0.16666666666666666</v>
@@ -685,7 +682,7 @@
         <v>60</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -705,10 +702,10 @@
         <v>80</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>41912</v>
       </c>
@@ -725,10 +722,30 @@
         <v>35</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.84375</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>120</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
